--- a/public/example/import-example.xlsx
+++ b/public/example/import-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>code</t>
   </si>
@@ -36,6 +36,9 @@
     <t>tahap</t>
   </si>
   <si>
+    <t>tahun</t>
+  </si>
+  <si>
     <t>provinsi</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
     <t>3511116505840006</t>
   </si>
   <si>
-    <t>1:2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">JAWA TIMUR</t>
   </si>
   <si>
@@ -162,9 +162,6 @@
     <t>3511116505840009</t>
   </si>
   <si>
-    <t>2:2022</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>3511116505840010</t>
   </si>
   <si>
-    <t>2:2023</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>3511116505840011</t>
   </si>
   <si>
-    <t>3:2022</t>
-  </si>
-  <si>
     <t>CP3</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
   </si>
   <si>
     <t>3511116505840013</t>
-  </si>
-  <si>
-    <t>4:2022</t>
   </si>
   <si>
     <t>A9</t>
@@ -849,9 +837,10 @@
     <col bestFit="1" customWidth="1" min="4" max="4" width="7"/>
     <col bestFit="1" customWidth="1" min="5" max="5" width="12.7109375"/>
     <col bestFit="1" customWidth="1" min="6" max="6" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="34.85546875"/>
+    <col customWidth="1" min="7" max="7" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="34.85546875"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25">
@@ -888,7 +877,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -915,16 +904,19 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <v>24</v>
@@ -932,49 +924,52 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -994,49 +989,52 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1056,49 +1054,52 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1118,61 +1119,64 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="4">
         <v>22</v>
@@ -1180,61 +1184,64 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>34</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>35</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="4">
         <v>22</v>
@@ -1242,61 +1249,64 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
         <v>30</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
         <v>34</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>35</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>36</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4">
         <v>23</v>
@@ -1304,61 +1314,64 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>34</v>
       </c>
-      <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>49</v>
+      <c r="S8" t="s">
+        <v>60</v>
       </c>
       <c r="T8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4">
         <v>23</v>
@@ -1366,61 +1379,64 @@
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
         <v>30</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>34</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>35</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>36</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4">
         <v>23</v>
@@ -1428,58 +1444,61 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="R10" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="T10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4">
         <v>21</v>
@@ -1487,61 +1506,64 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>30</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>34</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>35</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>36</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4">
         <v>21</v>
@@ -1549,49 +1571,52 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="S12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1604,6 +1629,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="4"/>
@@ -1614,6 +1640,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="4"/>
@@ -1624,6 +1651,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="4"/>
@@ -1634,6 +1662,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="4"/>
@@ -1644,6 +1673,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="4"/>
@@ -1654,6 +1684,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="4"/>
@@ -1664,6 +1695,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="4"/>
@@ -1674,6 +1706,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="4"/>
@@ -1684,6 +1717,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="4"/>
@@ -1694,6 +1728,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="4"/>
@@ -1704,6 +1739,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="4"/>
@@ -1714,6 +1750,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="4"/>
@@ -1724,6 +1761,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="4"/>
@@ -1734,6 +1772,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="4"/>
@@ -1744,6 +1783,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" ht="14.25">
       <c r="B28" s="4"/>
@@ -1754,6 +1794,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" s="4"/>
@@ -1764,6 +1805,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" ht="14.25">
       <c r="B30" s="4"/>
@@ -1774,6 +1816,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="4"/>
@@ -1784,6 +1827,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="4"/>
@@ -1794,6 +1838,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="4"/>
@@ -1804,6 +1849,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="4"/>
@@ -1814,6 +1860,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="4"/>
@@ -1824,6 +1871,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="4"/>
@@ -1834,6 +1882,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="4"/>
@@ -1844,6 +1893,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="4"/>
@@ -1854,6 +1904,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="4"/>
@@ -1864,6 +1915,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="4"/>
@@ -1874,6 +1926,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="4"/>
@@ -1884,6 +1937,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="4"/>
@@ -1894,6 +1948,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="4"/>
@@ -1904,6 +1959,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="4"/>
@@ -1914,6 +1970,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="4"/>
@@ -1924,6 +1981,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="4"/>
@@ -1934,6 +1992,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="4"/>
@@ -1944,6 +2003,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="4"/>
@@ -1954,6 +2014,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="4"/>
@@ -1964,6 +2025,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="4"/>
@@ -1974,6 +2036,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="4"/>
@@ -1984,6 +2047,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="4"/>
@@ -1994,6 +2058,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="4"/>
@@ -2004,6 +2069,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="4"/>
@@ -2014,6 +2080,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="4"/>
@@ -2024,6 +2091,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="4"/>
@@ -2034,6 +2102,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="4"/>
@@ -2044,6 +2113,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="4"/>
@@ -2054,6 +2124,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="4"/>
@@ -2064,6 +2135,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="4"/>
@@ -2074,6 +2146,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="4"/>
@@ -2084,6 +2157,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="4"/>
@@ -2094,6 +2168,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="4"/>
@@ -2104,6 +2179,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" ht="14.25">
       <c r="B64" s="4"/>
@@ -2114,6 +2190,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" ht="14.25">
       <c r="B65" s="4"/>
@@ -2124,6 +2201,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" ht="14.25">
       <c r="B66" s="4"/>
@@ -2134,6 +2212,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" ht="14.25">
       <c r="B67" s="4"/>
@@ -2144,6 +2223,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" ht="14.25">
       <c r="B68" s="4"/>
@@ -2154,6 +2234,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" ht="14.25">
       <c r="C69" s="7"/>
